--- a/RefineCalc/bin/Release/RefineData.xlsx
+++ b/RefineCalc/bin/Release/RefineData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NewFace\Desktop\RefineCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F60ED-04C7-4B05-8119-04940F522F35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD30D7DD-E461-49DA-A0FD-F7EC7D29BC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EF8837A-CC51-47D0-A690-844D2EFA9766}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1EF8837A-CC51-47D0-A690-844D2EFA9766}"/>
   </bookViews>
   <sheets>
     <sheet name="무기" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6FD220-EAE5-41A5-BBF8-61C46BFD0D2A}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,19 +552,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -596,19 +596,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -640,19 +640,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -684,19 +684,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -728,19 +728,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -772,19 +772,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -816,19 +816,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -860,19 +860,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -904,19 +904,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -2284,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C84CAA-97BA-4F22-877D-D8E4725A79A4}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2342,19 +2342,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -2386,19 +2386,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -2430,19 +2430,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -2474,19 +2474,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -2518,19 +2518,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -2562,19 +2562,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -2606,19 +2606,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -2650,19 +2650,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -2694,19 +2694,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="H10">
         <v>10</v>
